--- a/back/test.xlsx
+++ b/back/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -58,21 +58,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -373,11 +373,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="60" r="1">
+    <row r="1" ht="60" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>荆州市砼盟工程设备有限公司维修清单</t>
@@ -419,7 +419,7 @@
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="4">
+    <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>客户信息</t>
@@ -503,6 +503,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F7:H7"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>